--- a/medicine/Enfance/Cee_Cee_Mia/Cee_Cee_Mia.xlsx
+++ b/medicine/Enfance/Cee_Cee_Mia/Cee_Cee_Mia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Céline Houatmia, dit Cee Cee Mia, née le 3 septembre 1975 à Namur (Wallonie, Belgique), est une scénariste de bande dessinée et autrice jeunesse belge francophone.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Bien que née en Belgique, Cee Cee Mia arrive en France très tôt[1]. À l'âge de quinze ans, elle lit le roman Le Monde selon Garp, qui lui donne envie de devenir elle-même auteure. Elle s'inscrit en fac de LEA, mais elle abandonne ses études pour devenir fille au pair dans le New Jersey. Une expérience qui dure un an, avant qu'elle ne multiplie les voyages, rencontrant notamment son futur mari dans un aéroport tunisien[2].
-Auteure jeunesse
-Cee Cee Mia publie plusieurs livres jeunesse dans différentes maisons d'éditions (Frimousse, Langue de chat, Samir, Les 400 coups)[2].
-Scénariste de bande dessinée
-Elle écrit des scénarios et collabore à partir de 2020 au journal Spirou[3] et avec les éditions Dupuis notamment la série Au-delà des étoiles avec Lesdeuxpareilles au dessin (pseudonyme des jumelles Canadiennes Julie et Lydia Fontaine Ferron). Elle est aussi l'auteure du webtoon Run Free paru chez Webtoon Factory[4]. L'année suivante, elle co-écrit avec Carbone, La Brigade des souvenirs, un album mis en image par Marko et publié par Dupuis[2].
-En 2021, Cee Cee Mia demeure à Carcassonne[5].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que née en Belgique, Cee Cee Mia arrive en France très tôt. À l'âge de quinze ans, elle lit le roman Le Monde selon Garp, qui lui donne envie de devenir elle-même auteure. Elle s'inscrit en fac de LEA, mais elle abandonne ses études pour devenir fille au pair dans le New Jersey. Une expérience qui dure un an, avant qu'elle ne multiplie les voyages, rencontrant notamment son futur mari dans un aéroport tunisien.
 </t>
         </is>
       </c>
@@ -545,31 +557,297 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auteure jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cee Cee Mia publie plusieurs livres jeunesse dans différentes maisons d'éditions (Frimousse, Langue de chat, Samir, Les 400 coups).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Scénariste de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle écrit des scénarios et collabore à partir de 2020 au journal Spirou et avec les éditions Dupuis notamment la série Au-delà des étoiles avec Lesdeuxpareilles au dessin (pseudonyme des jumelles Canadiennes Julie et Lydia Fontaine Ferron). Elle est aussi l'auteure du webtoon Run Free paru chez Webtoon Factory. L'année suivante, elle co-écrit avec Carbone, La Brigade des souvenirs, un album mis en image par Marko et publié par Dupuis.
+En 2021, Cee Cee Mia demeure à Carcassonne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Albums de bande dessinée
-Au-delà des étoiles[1]
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Au-delà des étoiles
 1 La Naissance d'un crew, Dupuis, Marcinelle, 2020Scénario : Cee Cee Mia - Dessin et couleurs : Lesdeuxpareilles -  (ISBN 978-2-8001-7425-9)
-2 La famille, la vraie[6] ! , Dupuis, Marcinelle, 2 juillet 2021Scénario : Cee Cee Mia - Dessin et couleurs : Lesdeuxpareilles -  (ISBN 979-10-34747-66-5)
-3 Plus qu'un quartier ![7], Dupuis, Marcinelle, 29 avril 2022Scénario : Cee Cee Mia - Dessin et couleurs : Lesdeuxpareilles -  (ISBN 979-10-34754-31-1)
-La Brigade des souvenirs
-1 La Lettre de Toinette[8],[9],[10],[11],[12], Dupuis, Marcinelle, 3 septembre 2021Scénario : Cee Cee Mia, Carbone - Dessin : Marko - Couleurs : Maëla Cosson -  (ISBN 979-10-34736-11-9)
-2 Mon île adorée[13],[14], Dupuis, Marcinelle, 3 septembre 2021Scénario : Cee Cee Mia, Carbone - Dessin : Marko - Couleurs : Maëla Cosson -  (ISBN 978-2-8001-7399-3)
-3 La Voiture de Bob[15], Dupuis, Marcinelle, 1 juillet 2022Scénario : Cee Cee Mia, Carbone - Dessin : Marko - Couleurs : Maëla Cosson -  (ISBN 979-10-34757-74-9)
-4 Le Mur de Hans[16], Dupuis, Marcinelle, 28 avril 2023 Scénario : Cee Cee Mia, Carbone - Dessin : Marko - Couleurs : HadH -  (ISBN 979-10-34767-22-9)
-Évolution Z
-1 L'Île[17],[18], Dupuis, Marcinelle, 1 juillet 2022Scénario : Cee Cee Mia - Dessin : Tomm Bulyne - Couleurs : Éric Buisine -  (ISBN 979-10-34747-39-9)
-Complots à Versailles
-5 Mariages à la Cour, Éditions Jungle, Bruxelles, 21 avril 2022Scénario : Cee Cee Mia, Carbone, Annie Jay - Dessin : Giulia Adragna -  (ISBN 9782822235655)
-6 Mme de Maintenon, Éditions Jungle, Bruxelles, 17 novembre 2022Scénario : Cee Cee Mia, Carbone, Annie Jay - Dessin : Roberta Pierpaoli -  (ISBN 9782822237918)
-New hope
-1 Celle qui voulait infiltrer Epsilon[19], Dupuis, Marcinelle, 6 janvier 2023Scénario : Cee Cee Mia - Dessin et couleurs : Jalo -  (ISBN 979-10-34758-69-2)
-2 Celui qui se cache derrière Pi[20], Dupuis, Marcinelle, 16 février 2024Scénario : Cee Cee Mia - Dessin et couleurs : Jalo -  (ISBN 979-10-34767-03-8)
-Littérature jeunesse
-Mon père est une patate[21], illustrations de Jorfe, Les 400 coups, 2018  (ISBN 978-2-89540-702-7)
+2 La famille, la vraie ! , Dupuis, Marcinelle, 2 juillet 2021Scénario : Cee Cee Mia - Dessin et couleurs : Lesdeuxpareilles -  (ISBN 979-10-34747-66-5)
+3 Plus qu'un quartier !, Dupuis, Marcinelle, 29 avril 2022Scénario : Cee Cee Mia - Dessin et couleurs : Lesdeuxpareilles -  (ISBN 979-10-34754-31-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>La Brigade des souvenirs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1 La Lettre de Toinette Dupuis, Marcinelle, 3 septembre 2021Scénario : Cee Cee Mia, Carbone - Dessin : Marko - Couleurs : Maëla Cosson -  (ISBN 979-10-34736-11-9)
+2 Mon île adorée Dupuis, Marcinelle, 3 septembre 2021Scénario : Cee Cee Mia, Carbone - Dessin : Marko - Couleurs : Maëla Cosson -  (ISBN 978-2-8001-7399-3)
+3 La Voiture de Bob, Dupuis, Marcinelle, 1 juillet 2022Scénario : Cee Cee Mia, Carbone - Dessin : Marko - Couleurs : Maëla Cosson -  (ISBN 979-10-34757-74-9)
+4 Le Mur de Hans, Dupuis, Marcinelle, 28 avril 2023 Scénario : Cee Cee Mia, Carbone - Dessin : Marko - Couleurs : HadH -  (ISBN 979-10-34767-22-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Évolution Z</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1 L'Île Dupuis, Marcinelle, 1 juillet 2022Scénario : Cee Cee Mia - Dessin : Tomm Bulyne - Couleurs : Éric Buisine -  (ISBN 979-10-34747-39-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Complots à Versailles</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5 Mariages à la Cour, Éditions Jungle, Bruxelles, 21 avril 2022Scénario : Cee Cee Mia, Carbone, Annie Jay - Dessin : Giulia Adragna -  (ISBN 9782822235655)
+6 Mme de Maintenon, Éditions Jungle, Bruxelles, 17 novembre 2022Scénario : Cee Cee Mia, Carbone, Annie Jay - Dessin : Roberta Pierpaoli -  (ISBN 9782822237918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>New hope</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1 Celle qui voulait infiltrer Epsilon, Dupuis, Marcinelle, 6 janvier 2023Scénario : Cee Cee Mia - Dessin et couleurs : Jalo -  (ISBN 979-10-34758-69-2)
+2 Celui qui se cache derrière Pi, Dupuis, Marcinelle, 16 février 2024Scénario : Cee Cee Mia - Dessin et couleurs : Jalo -  (ISBN 979-10-34767-03-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mon père est une patate, illustrations de Jorfe, Les 400 coups, 2018  (ISBN 978-2-89540-702-7)
 L'Histoire de mon arbre, illustrations de Delphine Berger-Cornuel, Vert pomme, 2013  (ISBN 979-10-91893-03-9)
 L'Histoire de notre jardin, illustrations de Delphine Berger-Cornuel, Vert pomme, 2014  (ISBN 979-10-91893-05-3)
 En route pour l'espace, illustrations de Julie Lecomte, Samir, 2016  (ISBN 9786144431269)
@@ -578,33 +856,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cee_Cee_Mia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cee_Cee_Mia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cee_Cee_Mia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020 :  prix Conseil départemental de Loir-et-Cher, avec Lesdeuxpareilles, pour Au-delà des étoiles, T1, La naissance d’un crew, Dupuis[22].</t>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2020 :  prix Conseil départemental de Loir-et-Cher, avec Lesdeuxpareilles, pour Au-delà des étoiles, T1, La naissance d’un crew, Dupuis.</t>
         </is>
       </c>
     </row>
